--- a/exports/L101-tok-result-csv.xlsx
+++ b/exports/L101-tok-result-csv.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690AD308-EE61-0648-8A80-6FA6953DAC1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAFEA2D-EDA0-A749-AD9E-9DDEEBD2DF8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17020" xr2:uid="{305AEDEB-23E7-7446-B1C5-0AC92BC8DC5C}"/>
+    <workbookView xWindow="12980" yWindow="620" windowWidth="27340" windowHeight="17020" xr2:uid="{305AEDEB-23E7-7446-B1C5-0AC92BC8DC5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="L101_tok_result_csv" localSheetId="0">Sheet1!$A$1:$P$90</definedName>
+    <definedName name="L101_tok_result_csv" localSheetId="0">Sheet1!$A$1:$P$89</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,49 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Jack Bowers</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{73502546-B459-9949-A2BD-9CC479017908}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jack Bowers:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>fix orthography in source!</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -95,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="267">
   <si>
     <t>Orth</t>
   </si>
@@ -335,9 +292,6 @@
   </si>
   <si>
     <t>Quando está viejo, voy a comprar un pequeño toro.</t>
-  </si>
-  <si>
-    <t>chuun</t>
   </si>
   <si>
     <t>chicken</t>
@@ -905,7 +859,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -937,26 +891,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -987,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,9 +935,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,11 +1252,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB5CE78-84C2-5749-9609-E3D376396767}">
-  <dimension ref="A1:P106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB5CE78-84C2-5749-9609-E3D376396767}">
+  <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1348,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1391,272 +1322,272 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>81</v>
       </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3" t="s">
-        <v>81</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
       <c r="H3" t="s">
-        <v>82</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
       <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
         <v>72</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>73</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O6" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
         <v>86</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="H6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N7" t="s">
         <v>53</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
         <v>87</v>
       </c>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="4"/>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
         <v>95</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>96</v>
-      </c>
-      <c r="H13" t="s">
-        <v>97</v>
       </c>
       <c r="M13" t="s">
         <v>55</v>
@@ -1668,254 +1599,255 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" t="s">
+    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M14" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" t="s">
-        <v>57</v>
+      <c r="E14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
         <v>107</v>
       </c>
-      <c r="M17" t="s">
-        <v>14</v>
-      </c>
       <c r="N17" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="O17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" t="s">
         <v>109</v>
       </c>
-      <c r="O18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="18" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="O19" s="4" t="s">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="I20" t="s">
+        <v>128</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N20" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
         <v>130</v>
       </c>
-      <c r="E21" t="s">
-        <v>126</v>
-      </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="N22" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="O22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" t="s">
         <v>109</v>
       </c>
-      <c r="O23" t="s">
-        <v>110</v>
+    </row>
+    <row r="23" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M24" s="4" t="s">
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" t="s">
         <v>63</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
         <v>101</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>102</v>
       </c>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
       <c r="M25" t="s">
         <v>62</v>
       </c>
@@ -1925,17 +1857,16 @@
       <c r="O25" t="s">
         <v>64</v>
       </c>
-      <c r="P25"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
         <v>101</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>102</v>
-      </c>
-      <c r="H26" t="s">
-        <v>103</v>
       </c>
       <c r="M26" t="s">
         <v>62</v>
@@ -1948,242 +1879,245 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" t="s">
-        <v>62</v>
-      </c>
-      <c r="N27" t="s">
-        <v>63</v>
-      </c>
-      <c r="O27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+        <v>143</v>
+      </c>
       <c r="E28" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+        <v>144</v>
+      </c>
       <c r="H28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+        <v>145</v>
+      </c>
       <c r="M28" s="4" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="P28" s="4"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="A29" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" t="s">
-        <v>253</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30" t="s">
-        <v>254</v>
-      </c>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30" t="s">
+      <c r="E31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P30"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E31" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" t="s">
-        <v>258</v>
-      </c>
-      <c r="M31" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="H32" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" t="s">
         <v>36</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" t="s">
         <v>37</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
-      </c>
-      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="s">
+        <v>107</v>
+      </c>
+      <c r="N33" t="s">
+        <v>108</v>
+      </c>
+      <c r="O33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M33" t="s">
-        <v>36</v>
-      </c>
-      <c r="N33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" t="s">
-        <v>250</v>
-      </c>
-      <c r="H34" t="s">
-        <v>251</v>
-      </c>
-      <c r="M34" t="s">
-        <v>108</v>
-      </c>
-      <c r="N34" t="s">
-        <v>109</v>
-      </c>
-      <c r="O34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+        <v>152</v>
+      </c>
       <c r="H35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="M35" s="4" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P35" s="4"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>72</v>
@@ -2196,266 +2130,263 @@
       </c>
     </row>
     <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" t="s">
         <v>158</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38" t="s">
-        <v>158</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="E38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38" t="s">
-        <v>72</v>
-      </c>
-      <c r="N38" t="s">
-        <v>73</v>
-      </c>
-      <c r="O38" t="s">
-        <v>74</v>
-      </c>
-      <c r="P38"/>
-    </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="E39" t="s">
         <v>163</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>70</v>
+      <c r="H39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" t="s">
         <v>160</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>164</v>
-      </c>
-      <c r="H40" t="s">
-        <v>165</v>
       </c>
       <c r="I40" t="s">
         <v>166</v>
       </c>
+      <c r="J40" t="s">
+        <v>165</v>
+      </c>
       <c r="M40" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="N40" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="O40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" t="s">
-        <v>161</v>
-      </c>
-      <c r="H41" t="s">
-        <v>165</v>
-      </c>
-      <c r="I41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J41" t="s">
-        <v>166</v>
-      </c>
-      <c r="M41" t="s">
-        <v>77</v>
-      </c>
-      <c r="N41" t="s">
-        <v>78</v>
-      </c>
-      <c r="O41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="E41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I42" t="s">
         <v>169</v>
       </c>
-      <c r="I43" t="s">
+      <c r="M42" t="s">
+        <v>72</v>
+      </c>
+      <c r="N42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M43" t="s">
-        <v>72</v>
-      </c>
-      <c r="N43" t="s">
-        <v>73</v>
-      </c>
-      <c r="O43" t="s">
-        <v>74</v>
+      <c r="E43" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N45" t="s">
+        <v>73</v>
+      </c>
+      <c r="O45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" t="s">
+        <v>183</v>
+      </c>
+      <c r="M46" t="s">
         <v>55</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N46" t="s">
         <v>56</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="O46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46" t="s">
-        <v>72</v>
-      </c>
-      <c r="N46" t="s">
-        <v>73</v>
-      </c>
-      <c r="O46" t="s">
-        <v>74</v>
-      </c>
-      <c r="P46"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" t="s">
         <v>182</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>183</v>
-      </c>
-      <c r="H47" t="s">
-        <v>184</v>
       </c>
       <c r="M47" t="s">
         <v>55</v>
@@ -2469,459 +2400,459 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="H48" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="M48" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N48" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" t="s">
+        <v>112</v>
+      </c>
+      <c r="M50" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" t="s">
+        <v>60</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E49" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" t="s">
-        <v>107</v>
-      </c>
-      <c r="M49" t="s">
-        <v>62</v>
-      </c>
-      <c r="N49" t="s">
-        <v>63</v>
-      </c>
-      <c r="O49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M50" s="4" t="s">
+      <c r="E51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="N51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" t="s">
-        <v>113</v>
-      </c>
-      <c r="M51" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" t="s">
+        <v>186</v>
+      </c>
+      <c r="H52" t="s">
+        <v>187</v>
+      </c>
+      <c r="M52" t="s">
         <v>59</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N52" t="s">
         <v>60</v>
       </c>
-      <c r="O51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O52" s="4" t="s">
+      <c r="O52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E54" t="s">
-        <v>190</v>
-      </c>
-      <c r="H54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="M54" t="s">
-        <v>62</v>
-      </c>
-      <c r="N54" t="s">
-        <v>63</v>
-      </c>
-      <c r="O54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="M54" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" t="s">
         <v>195</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>70</v>
+      <c r="H55" t="s">
+        <v>196</v>
+      </c>
+      <c r="M55" t="s">
+        <v>116</v>
+      </c>
+      <c r="N55" t="s">
+        <v>117</v>
+      </c>
+      <c r="O55" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="A56" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="M56" t="s">
-        <v>117</v>
-      </c>
-      <c r="N56" t="s">
-        <v>118</v>
-      </c>
-      <c r="O56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P56" s="4"/>
+    </row>
+    <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+        <v>200</v>
+      </c>
       <c r="E57" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+        <v>201</v>
+      </c>
       <c r="H57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P57" s="4"/>
-    </row>
-    <row r="58" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="E58" t="s">
         <v>201</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="H58" t="s">
         <v>202</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>21</v>
+      <c r="M58" t="s">
+        <v>107</v>
+      </c>
+      <c r="N58" t="s">
+        <v>108</v>
+      </c>
+      <c r="O58" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H59" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M59" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="N59" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O59" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
+        <v>35</v>
+      </c>
+      <c r="M60" t="s">
+        <v>36</v>
+      </c>
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M60" t="s">
+      <c r="E61" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" t="s">
+        <v>208</v>
+      </c>
+      <c r="M62" t="s">
+        <v>116</v>
+      </c>
+      <c r="N62" t="s">
         <v>117</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O62" t="s">
         <v>118</v>
-      </c>
-      <c r="O60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" t="s">
-        <v>35</v>
-      </c>
-      <c r="M61" t="s">
-        <v>36</v>
-      </c>
-      <c r="N61" t="s">
-        <v>37</v>
-      </c>
-      <c r="O61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" t="s">
+        <v>41</v>
+      </c>
+      <c r="N63" t="s">
+        <v>42</v>
+      </c>
+      <c r="O63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H63" t="s">
-        <v>209</v>
-      </c>
-      <c r="M63" t="s">
-        <v>117</v>
-      </c>
-      <c r="N63" t="s">
-        <v>118</v>
-      </c>
-      <c r="O63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" t="s">
-        <v>40</v>
-      </c>
-      <c r="M64" t="s">
+      <c r="E64" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M65" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65" t="s">
         <v>214</v>
       </c>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66" t="s">
+      <c r="F65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65" t="s">
         <v>215</v>
       </c>
-      <c r="F66" t="s">
-        <v>127</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66" t="s">
-        <v>216</v>
-      </c>
-      <c r="I66" t="s">
-        <v>129</v>
-      </c>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66" t="s">
+      <c r="I65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65" t="s">
         <v>14</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N65" t="s">
         <v>15</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O65" t="s">
         <v>16</v>
       </c>
-      <c r="P66"/>
+      <c r="P65"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P66" s="4"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P67" s="4"/>
+      <c r="A67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" t="s">
+        <v>51</v>
+      </c>
+      <c r="M67" t="s">
+        <v>52</v>
+      </c>
+      <c r="N67" t="s">
+        <v>53</v>
+      </c>
+      <c r="O67" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H68" t="s">
         <v>51</v>
       </c>
       <c r="M68" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N68" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O68" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -2932,36 +2863,36 @@
         <v>58</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="M69" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="N69" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="O69" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H70" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="M70" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="N70" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="O70" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -2972,233 +2903,233 @@
         <v>66</v>
       </c>
       <c r="H71" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M71" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N71" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E72" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" t="s">
-        <v>71</v>
-      </c>
-      <c r="M72" t="s">
-        <v>72</v>
-      </c>
-      <c r="N72" t="s">
-        <v>73</v>
-      </c>
-      <c r="O72" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E73" s="4" t="s">
+    <row r="72" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="M72" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="N72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O73" s="4" t="s">
+      <c r="O72" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s">
+        <v>76</v>
+      </c>
+      <c r="M73" t="s">
+        <v>77</v>
+      </c>
+      <c r="N73" t="s">
+        <v>78</v>
+      </c>
+      <c r="O73" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="H74" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="M74" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N74" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O74" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" t="s">
         <v>218</v>
-      </c>
-      <c r="E75" t="s">
-        <v>219</v>
       </c>
       <c r="H75" t="s">
         <v>220</v>
       </c>
       <c r="M75" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="N75" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O75" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E76" t="s">
-        <v>219</v>
+        <v>258</v>
+      </c>
+      <c r="F76" t="s">
+        <v>223</v>
+      </c>
+      <c r="G76" t="s">
+        <v>83</v>
       </c>
       <c r="H76" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="I76" t="s">
+        <v>84</v>
       </c>
       <c r="M76" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N76" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O76" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E77" t="s">
-        <v>259</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="A77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P77" s="4"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G77" t="s">
-        <v>84</v>
-      </c>
-      <c r="H77" t="s">
-        <v>223</v>
-      </c>
-      <c r="I77" t="s">
-        <v>85</v>
-      </c>
-      <c r="M77" t="s">
-        <v>36</v>
-      </c>
-      <c r="N77" t="s">
-        <v>37</v>
-      </c>
-      <c r="O77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P78" s="4"/>
+      <c r="E78" t="s">
+        <v>225</v>
+      </c>
+      <c r="H78" t="s">
+        <v>226</v>
+      </c>
+      <c r="M78" t="s">
+        <v>52</v>
+      </c>
+      <c r="N78" t="s">
+        <v>53</v>
+      </c>
+      <c r="O78" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H79" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="I79" t="s">
+        <v>230</v>
       </c>
       <c r="M79" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="N79" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="O79" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="H80" t="s">
-        <v>230</v>
-      </c>
-      <c r="I80" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="M80" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="N80" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="O80" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" t="s">
         <v>123</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>124</v>
-      </c>
-      <c r="H81" t="s">
-        <v>125</v>
       </c>
       <c r="M81" t="s">
         <v>24</v>
@@ -3212,252 +3143,231 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="M82" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N82" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="O82" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M83" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="O83" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" t="s">
         <v>232</v>
       </c>
-      <c r="E84" t="s">
-        <v>235</v>
+      <c r="F84" t="s">
+        <v>236</v>
       </c>
       <c r="H84" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="I84" t="s">
+        <v>237</v>
       </c>
       <c r="M84" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="N84" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="O84" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E85" t="s">
-        <v>233</v>
-      </c>
-      <c r="F85" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H85" t="s">
-        <v>234</v>
-      </c>
-      <c r="I85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M85" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N85" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O85" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="F86" t="s">
+        <v>126</v>
       </c>
       <c r="H86" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="I86" t="s">
+        <v>128</v>
       </c>
       <c r="M86" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="O86" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E87" t="s">
-        <v>243</v>
-      </c>
-      <c r="F87" t="s">
-        <v>127</v>
-      </c>
-      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I87" t="s">
-        <v>129</v>
-      </c>
-      <c r="M87" t="s">
-        <v>14</v>
-      </c>
-      <c r="N87" t="s">
-        <v>15</v>
-      </c>
-      <c r="O87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G87" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="M88" s="4" t="s">
+      <c r="M87" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="N87" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O88" s="4" t="s">
+      <c r="O87" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E88" t="s">
+        <v>236</v>
+      </c>
+      <c r="H88" t="s">
+        <v>237</v>
+      </c>
+      <c r="M88" t="s">
+        <v>59</v>
+      </c>
+      <c r="N88" t="s">
+        <v>60</v>
+      </c>
+      <c r="O88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="E89" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="H89" t="s">
-        <v>238</v>
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
+        <v>138</v>
+      </c>
+      <c r="J89" t="s">
+        <v>139</v>
       </c>
       <c r="M89" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N89" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="O89" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E90" t="s">
-        <v>137</v>
-      </c>
-      <c r="H90" t="s">
-        <v>138</v>
-      </c>
-      <c r="I90" t="s">
-        <v>139</v>
-      </c>
-      <c r="J90" t="s">
-        <v>140</v>
-      </c>
-      <c r="M90" t="s">
-        <v>46</v>
-      </c>
-      <c r="N90" t="s">
-        <v>47</v>
-      </c>
-      <c r="O90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
-      <c r="P104"/>
-    </row>
-    <row r="106" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
+    <row r="103" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+    </row>
+    <row r="105" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P106">
+  <sortState ref="A2:P105">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>